--- a/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
@@ -579,16 +579,16 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6737089232326292</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5814862165943102</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6556137578740455</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -597,49 +597,49 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.5892645098439346</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.07086661920745962</v>
+        <v>0.01154880297057497</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2135852043406772</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.3302337489903116</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02075959786531961</v>
+        <v>0.2859416591935162</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1437814622669917</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06438322631808026</v>
+        <v>0.03063344963160425</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2547236750929612</v>
+        <v>0.1549718096292634</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01080175155435543</v>
+        <v>0.02004698070147395</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1810563845977325</v>
+        <v>0.1285941659193516</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.2805260293471571</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.5843571460475926</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01154880297057497</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3302337489903116</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2859416591935162</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03063344963160425</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1549718096292634</v>
+        <v>0.2859736985326422</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02004698070147395</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1285941659193516</v>
+        <v>0.2780526029347157</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
@@ -579,67 +579,67 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05713140791171525</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6968743389621403</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6890570645497462</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6288506931334932</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3330280281326856</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3566265583049632</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.3192937967095727</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3203961295104323</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3467951446610705</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2805260293471571</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5843571460475926</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.6280086240087979</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.6469044244398934</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2859736985326422</v>
+        <v>0.1986643790297477</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.4538262690838361</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2780526029347157</v>
+        <v>0.2660480508034045</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Complexity_STD</t>
         </is>
@@ -570,78 +555,69 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6737089232326292</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5814862165943102</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6556137578740455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5892645098439346</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07086661920745962</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2135852043406772</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02075959786531961</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1437814622669917</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06438322631808026</v>
+        <v>0.3999999999999995</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2547236750929612</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01080175155435543</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1810563845977325</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
